--- a/Assessments/Unit4/4.1.5/trustyTrash.xlsx
+++ b/Assessments/Unit4/4.1.5/trustyTrash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.1.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D43F46B5-A575-4CDB-9785-681BE638D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D43F46B5-A575-4CDB-9785-681BE638D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B346DB1A-E762-47A6-9C13-882DEEF5A148}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CAC18D25-CF31-40AD-9645-D460D010B591}"/>
   </bookViews>
@@ -44,49 +44,49 @@
     <t>Monthly Sales ($)</t>
   </si>
   <si>
-    <t>Customer Satisfaction (1-10)</t>
-  </si>
-  <si>
-    <t>Online Ratings (1-5)</t>
-  </si>
-  <si>
     <t>Number of Referrals</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
+    <t>Customer Satisfaction</t>
+  </si>
+  <si>
+    <t>Online Ratings</t>
+  </si>
+  <si>
+    <t>Month 1</t>
+  </si>
+  <si>
+    <t>Month 2</t>
+  </si>
+  <si>
+    <t>Month 3</t>
+  </si>
+  <si>
+    <t>Month 4</t>
+  </si>
+  <si>
+    <t>Month 5</t>
+  </si>
+  <si>
+    <t>Month 6</t>
+  </si>
+  <si>
+    <t>Month 7</t>
+  </si>
+  <si>
+    <t>Month 8</t>
+  </si>
+  <si>
+    <t>Month 9</t>
+  </si>
+  <si>
+    <t>Month 10</t>
+  </si>
+  <si>
+    <t>Month 11</t>
+  </si>
+  <si>
+    <t>Month 12</t>
   </si>
 </sst>
 </file>
@@ -501,12 +501,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,13 +514,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -528,16 +528,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>5000</v>
+        <v>7732</v>
       </c>
       <c r="C2" s="2">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -545,16 +545,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>5200</v>
+        <v>14845</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -562,16 +562,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>5300</v>
+        <v>8264</v>
       </c>
       <c r="C4" s="2">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E4" s="2">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -579,16 +579,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>5400</v>
+        <v>9859</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2">
-        <v>4.5999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="E5" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -596,16 +596,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>5500</v>
+        <v>14225</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E6" s="2">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -613,16 +613,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>5600</v>
+        <v>12891</v>
       </c>
       <c r="C7" s="2">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2">
-        <v>4.9000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="E7" s="2">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -630,16 +630,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>5700</v>
+        <v>9373</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2">
         <v>4.3</v>
       </c>
       <c r="E8" s="2">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -647,16 +647,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>5800</v>
+        <v>10874</v>
       </c>
       <c r="C9" s="2">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="E9" s="2">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -664,16 +664,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>5900</v>
+        <v>11744</v>
       </c>
       <c r="C10" s="2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E10" s="2">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -681,16 +681,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>6000</v>
+        <v>8468</v>
       </c>
       <c r="C11" s="2">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -698,16 +698,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>6100</v>
+        <v>5705</v>
       </c>
       <c r="C12" s="2">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2">
-        <v>4.9000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="E12" s="2">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -715,16 +715,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>6200</v>
+        <v>7599</v>
       </c>
       <c r="C13" s="2">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="E13" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assessments/Unit4/4.1.5/trustyTrash.xlsx
+++ b/Assessments/Unit4/4.1.5/trustyTrash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.1.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D43F46B5-A575-4CDB-9785-681BE638D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B346DB1A-E762-47A6-9C13-882DEEF5A148}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{D43F46B5-A575-4CDB-9785-681BE638D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A887F9-4E83-47F8-8B65-AD645178F35D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CAC18D25-CF31-40AD-9645-D460D010B591}"/>
   </bookViews>
@@ -179,6 +179,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,7 +505,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,7 +575,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E4" s="2">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -588,7 +592,7 @@
         <v>3.9</v>
       </c>
       <c r="E5" s="2">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -613,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>12891</v>
+        <v>15891</v>
       </c>
       <c r="C7" s="2">
         <v>73</v>
@@ -698,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>5705</v>
+        <v>9705</v>
       </c>
       <c r="C12" s="2">
         <v>65</v>

--- a/Assessments/Unit4/4.1.5/trustyTrash.xlsx
+++ b/Assessments/Unit4/4.1.5/trustyTrash.xlsx
@@ -734,4 +734,303 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
+    <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <xsd:import namespace="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:Year" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:Tag" minOccurs="0"/>
+                <xsd:element ref="ns2:Status" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Year" ma:index="8" nillable="true" ma:displayName="Year" ma:format="Dropdown" ma:internalName="Year">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b6ee6c04-f50c-48a2-8aad-e6d71caf9b84" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Tag" ma:index="23" nillable="true" ma:displayName="Tag" ma:format="Dropdown" ma:indexed="true" ma:internalName="Tag">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="RGE"/>
+          <xsd:enumeration value="Short Course"/>
+          <xsd:enumeration value="Full Course"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Status" ma:index="24" nillable="true" ma:displayName="Status" ma:format="Dropdown" ma:indexed="true" ma:internalName="Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="In Development"/>
+          <xsd:enumeration value="Active"/>
+          <xsd:enumeration value="In Review"/>
+          <xsd:enumeration value="Closed"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c7bf0040-ac83-4da7-b072-3c1b65a214b3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{bb1ddd0b-41e2-44a6-9b01-a6fda7cf7cf7}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c7bf0040-ac83-4da7-b072-3c1b65a214b3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
+    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D9D76B0-98C0-4215-A6A6-E103F8A8382A}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C24221B0-56D6-427B-BF15-01915AD5C1DD}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75884F22-A747-4EA8-A8A5-ED2CEDD17B80}"/>
 </file>